--- a/xlsx/燃油_intext.xlsx
+++ b/xlsx/燃油_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E5%8F%8D%E6%87%89</t>
   </si>
   <si>
-    <t>化學反應</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_燃油</t>
+    <t>化学反应</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_燃油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%8F%8D%E5%BA%94</t>
@@ -47,25 +47,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E9%87%8F</t>
   </si>
   <si>
-    <t>熱量</t>
+    <t>热量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%80%BC</t>
   </si>
   <si>
-    <t>熱值</t>
+    <t>热值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E6%B0%A3</t>
   </si>
   <si>
-    <t>廢氣</t>
+    <t>废气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>生質燃料</t>
+    <t>生质燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E7%9F%B3%E7%87%83%E6%96%99</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B6%E5%A4%96%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>戶外活動</t>
+    <t>户外活动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E6%B0%A3</t>
   </si>
   <si>
-    <t>氫氣</t>
+    <t>氢气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E8%9C%A1</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E6%9F%B4%E6%B2%B9</t>
   </si>
   <si>
-    <t>生質柴油</t>
+    <t>生质柴油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>燃料電池</t>
+    <t>燃料电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%99</t>
   </si>
   <si>
-    <t>煙</t>
+    <t>烟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%88%91</t>
@@ -401,19 +401,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%B1%E7%81%AB%E7%8B%82</t>
   </si>
   <si>
-    <t>縱火狂</t>
+    <t>纵火狂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%98%B2%E5%93%A1</t>
   </si>
   <si>
-    <t>消防員</t>
+    <t>消防员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%B1%E7%81%AB</t>
   </si>
   <si>
-    <t>縱火</t>
+    <t>纵火</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%91%AC</t>
